--- a/data/trans_dic/IP16A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -801,17 +801,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,79%</t>
+          <t>65,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>61,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>62,59%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>55,82%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,69; 100</t>
+          <t>97,05; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,41; 59,81</t>
+          <t>51,97; 73,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,02; 54,39</t>
+          <t>39,89; 65,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,06; 63,59</t>
+          <t>52,09; 77,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,1; 100</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,79; 77,33</t>
+          <t>49,61; 74,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,62; 67,66</t>
+          <t>52,93; 75,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,79; 74,16</t>
+          <t>35,0; 56,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,7; 100</t>
+          <t>98,32; 100</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46,66; 65,47</t>
+          <t>53,98; 71,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,59; 57,73</t>
+          <t>50,15; 67,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,8; 64,85</t>
+          <t>47,05; 63,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -941,17 +941,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>65,59%</t>
+          <t>52,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>66,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>65,03%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>55,94%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,05; 100</t>
+          <t>97,69; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,97; 73,86</t>
+          <t>30,41; 59,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,89; 65,09</t>
+          <t>29,02; 54,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,09; 77,31</t>
+          <t>42,06; 63,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,18; 100</t>
+          <t>97,1; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,61; 74,33</t>
+          <t>52,79; 77,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,93; 75,97</t>
+          <t>40,62; 67,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,0; 56,84</t>
+          <t>47,79; 74,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>98,32; 100</t>
+          <t>98,7; 100</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,98; 71,33</t>
+          <t>46,66; 65,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,15; 67,37</t>
+          <t>39,59; 57,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,05; 63,33</t>
+          <t>47,8; 64,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>69,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>72,33%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,17 +681,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>62,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>63,69%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>64,52%</t>
+          <t>67,72%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,53; 80,08</t>
+          <t>54,88; 80,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,66; 82,27</t>
+          <t>53,8; 83,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,78; 75,18</t>
+          <t>52,65; 83,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,51; 100</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,56; 80,29</t>
+          <t>60,2; 84,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,71; 73,62</t>
+          <t>47,83; 76,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,01; 77,43</t>
+          <t>42,99; 80,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>98,69; 100</t>
+          <t>97,89; 100</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>64,63; 77,24</t>
+          <t>62,48; 79,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,35; 74,91</t>
+          <t>54,13; 75,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,24; 72,75</t>
+          <t>55,0; 78,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -801,17 +801,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>72,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>63,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>65,59%</t>
+          <t>63,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>65,03%</t>
+          <t>67,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>65,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>55,94%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,05; 100</t>
+          <t>97,51; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,97; 73,86</t>
+          <t>62,93; 81,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,89; 65,09</t>
+          <t>51,58; 74,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,09; 77,31</t>
+          <t>50,9; 74,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,18; 100</t>
+          <t>97,14; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,61; 74,33</t>
+          <t>58,51; 78,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,93; 75,97</t>
+          <t>55,09; 78,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,0; 56,84</t>
+          <t>36,66; 60,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,32; 100</t>
+          <t>98,66; 100</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,98; 71,33</t>
+          <t>64,74; 78,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,15; 67,37</t>
+          <t>55,45; 72,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,05; 63,33</t>
+          <t>47,46; 63,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -941,17 +941,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,79%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>51,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>65,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>52,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>50,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>55,87%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,69; 100</t>
+          <t>94,84; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,41; 59,81</t>
+          <t>33,03; 64,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,02; 54,39</t>
+          <t>25,37; 52,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,06; 63,59</t>
+          <t>45,93; 71,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,1; 100</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,79; 77,33</t>
+          <t>35,87; 67,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,62; 67,66</t>
+          <t>52,79; 77,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,79; 74,16</t>
+          <t>40,07; 66,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>98,7; 100</t>
+          <t>97,26; 100</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46,66; 65,47</t>
+          <t>39,17; 61,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39,59; 57,73</t>
+          <t>43,08; 61,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,8; 64,85</t>
+          <t>45,89; 64,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55,14%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,21%</t>
+          <t>52,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,17 +1101,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>70,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,17 +1121,17 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>64,72%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>58,3%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>56,69%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>96,81; 100</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 54,53</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31,61; 69,71</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>38,16; 64,46</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>95,84; 100</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55,9; 83,49</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26,31; 60,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>48,39; 78,94</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>98,17; 100</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43,51; 66,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33,33; 57,65</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>47,04; 68,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62,4%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>55,14%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59,21%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67,23%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>61,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>64,72%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>58,3%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>57,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
           <t>99,11; 100</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>55,88; 68,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>47,55; 62,83</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>53,07; 66,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56,09; 68,63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47,88; 62,49</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>51,74; 65,6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>99,0; 100</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>60,7; 73,37</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>53,45; 68,0</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>48,62; 64,45</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>60,48; 72,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>54,43; 68,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>48,77; 65,2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>99,53; 100</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>60,41; 69,13</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>53,08; 63,13</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>52,42; 62,78</t>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59,55; 68,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>53,02; 63,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>52,5; 63,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP16A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,88; 80,61</t>
+          <t>56,54; 80,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,8; 83,3</t>
+          <t>53,26; 82,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,65; 83,18</t>
+          <t>53,03; 84,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,2; 84,24</t>
+          <t>61,16; 84,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,83; 76,23</t>
+          <t>49,73; 75,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,99; 80,57</t>
+          <t>45,49; 80,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62,48; 79,98</t>
+          <t>61,98; 79,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54,13; 75,74</t>
+          <t>55,18; 75,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,0; 78,49</t>
+          <t>55,85; 78,64</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,93; 81,53</t>
+          <t>62,22; 80,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,58; 74,79</t>
+          <t>49,59; 74,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,9; 74,15</t>
+          <t>51,54; 74,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,51; 78,85</t>
+          <t>57,89; 79,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,09; 78,56</t>
+          <t>55,18; 78,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,66; 60,86</t>
+          <t>35,92; 59,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>64,74; 78,01</t>
+          <t>64,06; 77,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,45; 72,92</t>
+          <t>56,19; 73,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,46; 63,78</t>
+          <t>46,32; 64,3</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,03; 64,36</t>
+          <t>32,67; 65,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,37; 52,09</t>
+          <t>25,4; 54,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,93; 71,3</t>
+          <t>43,5; 71,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,87; 67,45</t>
+          <t>36,07; 66,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,79; 77,39</t>
+          <t>52,07; 77,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,07; 66,85</t>
+          <t>38,94; 65,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,17; 61,36</t>
+          <t>39,22; 61,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43,08; 61,94</t>
+          <t>41,82; 61,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,89; 64,43</t>
+          <t>45,98; 65,94</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,09; 54,53</t>
+          <t>22,44; 54,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,61; 69,71</t>
+          <t>31,59; 66,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,16; 64,46</t>
+          <t>39,3; 64,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,9; 83,49</t>
+          <t>55,08; 83,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,31; 60,26</t>
+          <t>25,98; 60,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,39; 78,94</t>
+          <t>47,1; 77,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43,51; 66,77</t>
+          <t>44,2; 66,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,33; 57,65</t>
+          <t>32,79; 57,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,04; 68,07</t>
+          <t>46,75; 67,76</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,09; 68,63</t>
+          <t>56,06; 68,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,88; 62,49</t>
+          <t>47,47; 62,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,74; 65,6</t>
+          <t>52,02; 65,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,48; 72,96</t>
+          <t>60,79; 74,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,43; 68,25</t>
+          <t>54,04; 68,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,77; 65,2</t>
+          <t>47,48; 64,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,55; 68,8</t>
+          <t>60,26; 68,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,02; 63,71</t>
+          <t>53,17; 63,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>52,5; 63,05</t>
+          <t>51,97; 62,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -661,37 +661,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>73,74%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>62,56%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>63,92%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>69,36%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>69,89%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>70,05%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>73,74%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>62,56%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>67,72%</t>
+          <t>67,29%</t>
         </is>
       </c>
     </row>
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>95,93; 100</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>59,6; 83,3</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>48,3; 75,43</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41,17; 79,86</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>95,75; 100</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>56,54; 80,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>53,26; 82,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>53,03; 84,46</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>95,93; 100</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,16; 84,53</t>
+          <t>57,53; 82,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,73; 75,97</t>
+          <t>51,96; 83,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,49; 80,57</t>
+          <t>53,52; 83,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61,98; 79,44</t>
+          <t>62,78; 79,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,18; 75,7</t>
+          <t>55,85; 76,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,85; 78,64</t>
+          <t>54,73; 77,87</t>
         </is>
       </c>
     </row>
@@ -801,37 +801,37 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>69,55%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>67,14%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46,28%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>72,72%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>63,21%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>63,93%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>69,55%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>67,14%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>63,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>54,95%</t>
         </is>
       </c>
     </row>
@@ -864,42 +864,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>97,14; 100</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>57,69; 78,69</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>55,52; 78,43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33,43; 59,6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>97,51; 100</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>62,22; 80,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>49,59; 74,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>51,54; 74,75</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>97,14; 100</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,89; 79,2</t>
+          <t>62,99; 81,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,18; 78,46</t>
+          <t>51,01; 74,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,92; 59,79</t>
+          <t>50,54; 73,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>64,06; 77,77</t>
+          <t>64,47; 77,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>56,19; 73,0</t>
+          <t>56,27; 72,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>46,32; 64,3</t>
+          <t>45,81; 63,46</t>
         </is>
       </c>
     </row>
@@ -941,39 +941,39 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>51,23%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65,35%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>52,72%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>49,24%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>38,75%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>58,45%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>51,23%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>65,35%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>52,83%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>55,9%</t>
         </is>
       </c>
     </row>
@@ -1004,42 +1004,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>94,39; 100</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35,28; 66,75</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50,89; 77,95</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>39,08; 66,12</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>94,84; 100</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>32,67; 65,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>25,4; 54,05</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>43,5; 71,14</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>94,39; 100</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,07; 66,77</t>
+          <t>32,59; 64,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,07; 77,51</t>
+          <t>26,29; 53,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,94; 65,73</t>
+          <t>44,89; 70,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,22; 61,84</t>
+          <t>40,0; 62,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,82; 61,67</t>
+          <t>43,22; 62,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,98; 65,94</t>
+          <t>45,69; 65,04</t>
         </is>
       </c>
     </row>
@@ -1081,37 +1081,37 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>70,89%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>42,3%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>67,53%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>38,44%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>48,43%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>52,59%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>70,89%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>42,3%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>52,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>60,76%</t>
         </is>
       </c>
     </row>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>95,84; 100</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>54,26; 83,18</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 60,93</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>44,81; 88,81</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>96,81; 100</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>22,44; 54,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>31,59; 66,18</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>39,3; 64,26</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>95,84; 100</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,08; 83,03</t>
+          <t>23,81; 55,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,98; 60,34</t>
+          <t>30,23; 66,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,1; 77,77</t>
+          <t>39,33; 64,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,2; 66,47</t>
+          <t>43,74; 67,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,79; 57,53</t>
+          <t>31,86; 58,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,75; 67,76</t>
+          <t>47,32; 78,62</t>
         </is>
       </c>
     </row>
@@ -1221,37 +1221,37 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>67,23%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>61,36%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>58,53%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>62,4%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>55,14%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>59,21%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>67,23%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>61,36%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>59,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>58,79%</t>
         </is>
       </c>
     </row>
@@ -1284,42 +1284,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>99,0; 100</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60,7; 73,37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53,45; 68,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>48,7; 76,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>99,11; 100</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>56,06; 68,84</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>47,47; 62,52</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>52,02; 65,92</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>99,0; 100</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,79; 74,06</t>
+          <t>55,88; 68,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,04; 68,5</t>
+          <t>47,55; 62,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,48; 64,28</t>
+          <t>53,0; 66,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,26; 68,64</t>
+          <t>60,41; 69,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,17; 63,29</t>
+          <t>53,08; 63,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,97; 62,57</t>
+          <t>52,86; 68,42</t>
         </is>
       </c>
     </row>
